--- a/data/trans_dic/P5_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P5_R-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>31,56; 54,0</t>
+          <t>31,69; 53,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>26,21; 45,36</t>
+          <t>26,39; 46,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>30,25; 51,77</t>
+          <t>30,43; 52,56</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>15,09; 34,31</t>
+          <t>15,15; 35,42</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>31,51; 52,49</t>
+          <t>31,02; 51,76</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>24,87; 45,79</t>
+          <t>25,14; 45,79</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>19,58; 43,45</t>
+          <t>20,0; 43,52</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,41; 26,59</t>
+          <t>8,14; 26,58</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>34,62; 50,33</t>
+          <t>33,74; 49,35</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>28,65; 42,96</t>
+          <t>28,04; 42,84</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>27,73; 44,44</t>
+          <t>28,13; 44,44</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>13,66; 27,59</t>
+          <t>13,6; 27,02</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>23,37; 31,06</t>
+          <t>23,13; 30,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>32,71; 41,26</t>
+          <t>32,97; 41,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>31,17; 39,13</t>
+          <t>31,01; 38,85</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>13,17; 19,22</t>
+          <t>13,24; 19,04</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>22,39; 30,6</t>
+          <t>22,18; 30,43</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>33,83; 43,02</t>
+          <t>33,45; 42,56</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>29,97; 37,93</t>
+          <t>30,26; 38,39</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>15,99; 24,56</t>
+          <t>15,76; 25,67</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>24,08; 29,49</t>
+          <t>23,77; 29,46</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>34,22; 40,75</t>
+          <t>34,27; 40,62</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>31,77; 37,53</t>
+          <t>31,69; 37,32</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>15,16; 20,41</t>
+          <t>15,4; 20,72</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>19,04; 31,82</t>
+          <t>19,49; 32,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>35,78; 48,99</t>
+          <t>35,26; 49,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>35,96; 49,25</t>
+          <t>35,63; 49,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>14,05; 24,52</t>
+          <t>14,05; 24,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>20,98; 33,05</t>
+          <t>21,29; 33,26</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>32,86; 48,08</t>
+          <t>33,19; 47,48</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>32,17; 45,99</t>
+          <t>31,84; 46,14</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>15,3; 26,26</t>
+          <t>15,44; 26,17</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>21,9; 30,78</t>
+          <t>21,84; 30,34</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>36,36; 46,83</t>
+          <t>35,87; 46,35</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>35,97; 45,88</t>
+          <t>35,99; 45,52</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>15,68; 23,48</t>
+          <t>15,87; 23,38</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>24,84; 31,16</t>
+          <t>24,96; 31,27</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>34,63; 41,6</t>
+          <t>34,76; 41,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>33,91; 40,44</t>
+          <t>34,27; 40,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>14,71; 20,07</t>
+          <t>14,89; 20,13</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>24,92; 31,64</t>
+          <t>25,09; 31,61</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>34,54; 41,61</t>
+          <t>34,41; 41,86</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>31,58; 38,4</t>
+          <t>31,58; 38,26</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>16,22; 23,16</t>
+          <t>16,34; 23,15</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>25,82; 30,31</t>
+          <t>25,79; 30,2</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>35,7; 40,91</t>
+          <t>35,82; 40,78</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>33,99; 38,61</t>
+          <t>33,9; 38,93</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>16,2; 20,37</t>
+          <t>16,1; 20,23</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P5_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P5_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -656,42 +656,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>41,05%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>34,46%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>30,26%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>13,8%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>42,13%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>35,98%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>40,62%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>23,36%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>41,05%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>34,46%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>30,26%</t>
-        </is>
-      </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>15,43%</t>
+          <t>23,94%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>19,67%</t>
+          <t>19,19%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>31,69; 53,62</t>
+          <t>31,37; 52,05</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>26,39; 46,58</t>
+          <t>24,36; 45,51</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>30,43; 52,56</t>
+          <t>19,37; 43,56</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>15,15; 35,42</t>
+          <t>7,29; 23,91</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>31,02; 51,76</t>
+          <t>30,93; 53,44</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>25,14; 45,79</t>
+          <t>25,89; 46,1</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>20,0; 43,52</t>
+          <t>29,17; 51,72</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,14; 26,58</t>
+          <t>14,97; 34,96</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>33,74; 49,35</t>
+          <t>33,75; 49,86</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>28,04; 42,84</t>
+          <t>28,27; 42,67</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>28,13; 44,44</t>
+          <t>28,21; 44,02</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>13,6; 27,02</t>
+          <t>12,86; 27,13</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>26,27%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>37,87%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>34,17%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>22,48%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>26,86%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>37,16%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>35,0%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>16,02%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>26,27%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>37,87%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>34,17%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>19,11%</t>
+          <t>15,73%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>17,5%</t>
+          <t>18,91%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>23,13; 30,57</t>
+          <t>22,7; 30,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>32,97; 41,6</t>
+          <t>33,44; 42,81</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>31,01; 38,85</t>
+          <t>30,32; 38,75</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>13,24; 19,04</t>
+          <t>16,49; 37,04</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>22,18; 30,43</t>
+          <t>23,27; 30,84</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>33,45; 42,56</t>
+          <t>32,9; 42,07</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>30,26; 38,39</t>
+          <t>31,28; 38,93</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>15,76; 25,67</t>
+          <t>12,8; 18,93</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>23,77; 29,46</t>
+          <t>24,0; 29,4</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>34,27; 40,62</t>
+          <t>34,51; 40,68</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>31,69; 37,32</t>
+          <t>31,72; 37,52</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>15,4; 20,72</t>
+          <t>15,76; 27,27</t>
         </is>
       </c>
     </row>
@@ -936,42 +936,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>26,91%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>40,16%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>38,53%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>20,07%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>25,12%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>42,02%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>42,62%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>18,71%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>26,91%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>40,16%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>38,53%</t>
-        </is>
-      </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>20,25%</t>
+          <t>18,7%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>19,42%</t>
+          <t>19,31%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>19,49; 32,04</t>
+          <t>20,73; 33,6</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>35,26; 49,33</t>
+          <t>33,06; 48,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>35,63; 49,16</t>
+          <t>31,65; 45,18</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>14,05; 24,6</t>
+          <t>14,6; 25,64</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>21,29; 33,26</t>
+          <t>18,88; 31,84</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>33,19; 47,48</t>
+          <t>35,6; 49,01</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>31,84; 46,14</t>
+          <t>36,42; 49,69</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>15,44; 26,17</t>
+          <t>13,69; 24,44</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>21,84; 30,34</t>
+          <t>22,26; 30,55</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>35,87; 46,35</t>
+          <t>36,2; 46,47</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>35,99; 45,52</t>
+          <t>35,91; 45,57</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>15,87; 23,38</t>
+          <t>16,08; 23,51</t>
         </is>
       </c>
     </row>
@@ -1076,42 +1076,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>28,1%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>38,03%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>35,0%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>21,22%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>27,93%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>38,26%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>37,37%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>17,26%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>28,1%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>38,03%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>35,0%</t>
-        </is>
-      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>19,09%</t>
+          <t>17,11%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>18,12%</t>
+          <t>19,03%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>24,96; 31,27</t>
+          <t>25,11; 31,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>34,76; 41,81</t>
+          <t>34,46; 41,73</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>34,27; 40,75</t>
+          <t>31,61; 38,46</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>14,89; 20,13</t>
+          <t>16,9; 31,97</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>25,09; 31,61</t>
+          <t>24,8; 31,05</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>34,41; 41,86</t>
+          <t>34,92; 41,77</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>31,58; 38,26</t>
+          <t>34,31; 40,94</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>16,34; 23,15</t>
+          <t>14,75; 19,85</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>25,79; 30,2</t>
+          <t>25,76; 30,3</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>35,82; 40,78</t>
+          <t>35,81; 40,49</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>33,9; 38,93</t>
+          <t>33,97; 38,42</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>16,1; 20,23</t>
+          <t>16,67; 25,18</t>
         </is>
       </c>
     </row>
